--- a/excel1.xlsx
+++ b/excel1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\FCFM\Investigacion de Operaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\FCFM\Investigacion de Operaciones\Examen 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9F61BA7-DE2D-4D05-B454-851820A5BBFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A885EC-B613-4857-BC1D-DC25B4943BC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31575" yWindow="2970" windowWidth="21600" windowHeight="11400" xr2:uid="{6DA92E9C-0368-46F0-AB79-0BA2E49D8265}"/>
   </bookViews>
@@ -152,10 +152,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -177,9 +177,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -530,59 +530,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDA9CFE-DF9E-4584-BC22-CCA6A98A8B3B}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="1"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="D2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="E2" s="7">
         <v>3</v>
       </c>
-      <c r="E2" s="8">
+      <c r="F2" s="7">
         <v>4</v>
       </c>
-      <c r="F2" s="8">
+      <c r="G2" s="7">
         <v>5</v>
       </c>
-      <c r="G2" s="8">
+      <c r="H2" s="7">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -590,12 +594,13 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -603,12 +608,13 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -616,12 +622,13 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -629,12 +636,13 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -642,12 +650,13 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -655,12 +664,27 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
